--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,6 +1215,43 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,6 +1252,41 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>120000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,6 +1287,43 @@
         <v>120000</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1324,43 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1361,6 +1361,43 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1398,6 +1398,43 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1435,6 +1435,43 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1472,6 +1472,43 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,6 +1509,43 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,6 +1546,80 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,6 +1620,43 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,6 +1657,43 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1694,6 +1694,43 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1731,6 +1731,43 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1768,6 +1768,43 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,6 +1805,43 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,6 +1842,43 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1879,6 +1879,43 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1916,6 +1916,43 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,6 +1953,43 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,6 +1990,43 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2027,6 +2027,43 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2064,6 +2064,43 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2101,6 +2101,43 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2138,6 +2138,43 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2175,6 +2175,43 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2212,6 +2212,43 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2249,6 +2249,43 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2286,6 +2286,43 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2323,6 +2323,43 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,6 +2360,43 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,6 +2397,43 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2434,6 +2434,43 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2471,6 +2471,80 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2545,6 +2545,43 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03033.xlsx
+++ b/data/03033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2582,6 +2582,43 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>03033</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SGBHD</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
